--- a/data/trans_bre/P12A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,32%</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,51%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-34,31%</t>
+          <t>-30,41%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-6,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 2,53</t>
+          <t>-7,4; 5,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 6,64</t>
+          <t>-10,63; 2,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 0,73</t>
+          <t>-7,02; 5,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,92; 24,36</t>
+          <t>-5,1; 11,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 56,36</t>
+          <t>-48,42; 75,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,01; 9,29</t>
+          <t>-61,79; 26,24</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-51,92; 86,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-31,45; 132,37</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>-40,67%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-20,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-23,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 9,44</t>
+          <t>-9,01; 8,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 8,41</t>
+          <t>-17,4; 0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 11,46</t>
+          <t>-12,12; 5,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 80,51</t>
+          <t>-14,66; 4,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 77,32</t>
+          <t>-38,86; 75,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 110,53</t>
+          <t>-64,94; 3,93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-53,33; 41,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,07; 29,17</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,64</t>
+          <t>-25,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,69</t>
+          <t>-34,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-39,9%</t>
+          <t>-28,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-61,36%</t>
+          <t>-74,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-71,13%</t>
+          <t>-77,28%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-89,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-74,74%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 5,58</t>
+          <t>-23,17; 2,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 0,04</t>
+          <t>-64,72; -1,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -4,19</t>
+          <t>-70,91; -9,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-84,74; 118,43</t>
+          <t>-67,54; -1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-90,43; 7,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-94,87; -20,35</t>
+          <t>-100,0; -6,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -50,96</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 3,91</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>-6,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>-44,14%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-33,34%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-19,3%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,27</t>
+          <t>-6,43; 4,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,23</t>
+          <t>-14,55; -2,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,83</t>
+          <t>-12,83; 0,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 29,34</t>
+          <t>-11,7; 2,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 26,71</t>
+          <t>-37,59; 38,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 15,11</t>
+          <t>-63,09; -16,42</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-59,02; 2,56</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-46,86; 19,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-30,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,38%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.4332597957149562</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.370351576019719</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.5387439945059719</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.734404030761085</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.03978333532237623</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3266162020725139</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.052843814427001</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2887068744084486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 5,74</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,63; 2,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 5,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 11,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-48,42; 75,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-61,79; 26,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-51,92; 86,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,45; 132,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.872547265523876</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.29727264326749</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.031443200574422</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.471857385622288</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.47858010219676</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6390002733463868</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5161288896353313</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2775092243012757</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.801970046975865</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.885713795432166</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.030367919772975</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.8241581049243</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.76382005922896</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2250541437694699</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.8803426634624596</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.482933493020277</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,27%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-40,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-20,28%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-23,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 8,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,4; 0,35</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,12; 5,07</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,66; 4,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-38,86; 75,22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-64,94; 3,93</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-53,33; 41,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-55,07; 29,17</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.064290037988112</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.944768304418257</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.875127916035827</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.842551725813618</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1046858979684654</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3826194027606267</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1675350087860406</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2367024790594997</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-25,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-34,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-28,79</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-74,66%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-77,28%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-89,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-74,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.97712933664062</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.87062563250758</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.286511654296</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-14.53396231139135</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4773734191600827</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6369992521389198</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5155137548458613</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5496393579225359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-23,17; 2,31</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-64,72; -1,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-70,91; -9,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-67,54; -1,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -6,94</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -50,96</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 3,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.805378224584211</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.251907714425593</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.446148523809065</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.08208194742678</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5867406654372204</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.09281197815926968</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4890254333886045</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2748279342733616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-8,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-44,14%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-33,34%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-19,3%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.134242401968435</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-21.13370284598765</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-32.97415406449763</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-27.14651290429009</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.7276692571952833</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7417557539077186</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.8785771632701956</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7317286558310775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 4,06</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; -2,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; 0,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; 2,86</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-37,59; 38,72</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-63,09; -16,42</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-59,02; 2,56</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-46,86; 19,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.32316517046864</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-58.95795925207489</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-68.73298192272446</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-66.50617553271516</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.345644178812779</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.4346915950328193</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-8.831830266368208</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.3416839164605789</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.1003855551118837</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.4642549553286099</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1151558869396493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.821779266337906</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-7.734026104107053</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.065275195231522</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.201997389245675</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1270959646388288</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4272005857003923</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.3149075547179447</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1707626215615447</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.071291195962674</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.73209220097329</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.07957024216297</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.66299081477106</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4302012930046556</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6191726366003512</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.566653353374303</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4723273198342154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.125756974140422</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.110444768110034</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4876929223891844</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.452971515670649</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.284227614891931</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1421504596735875</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.05255697982805384</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.241044376880319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1021,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
